--- a/public/upload/importation_model.xlsx
+++ b/public/upload/importation_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gomolog/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/RHmanager/public/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76085DD9-5B98-EF42-8B2D-1ACF1A135012}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8101BD-BCDD-5646-9C4F-DC0814C0E2EB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16280" firstSheet="20" activeTab="28" xr2:uid="{458DED66-BC4C-964F-9BFE-B2B4D8A2CD75}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16280" firstSheet="27" activeTab="37" xr2:uid="{458DED66-BC4C-964F-9BFE-B2B4D8A2CD75}"/>
   </bookViews>
   <sheets>
     <sheet name="Affectations" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="871">
   <si>
     <t>Code</t>
   </si>
@@ -2665,43 +2665,7 @@
     <t>CES</t>
   </si>
   <si>
-    <t>EX/DRH25289</t>
-  </si>
-  <si>
-    <t>EZFVV</t>
-  </si>
-  <si>
-    <t>ERUE/373K</t>
-  </si>
-  <si>
     <t>Code Catégorie Auxiliare</t>
-  </si>
-  <si>
-    <t>TEST003</t>
-  </si>
-  <si>
-    <t>ALI</t>
-  </si>
-  <si>
-    <t>SOUL</t>
-  </si>
-  <si>
-    <t>NIAMEY</t>
-  </si>
-  <si>
-    <t>EBDJ833</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>NIGERIENNE</t>
-  </si>
-  <si>
-    <t>FHJVJF</t>
-  </si>
-  <si>
-    <t>BKBVVJV</t>
   </si>
   <si>
     <t>Divorcé(e)</t>
@@ -3148,7 +3112,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3182,55 +3146,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="C2" s="5">
-        <v>43696</v>
-      </c>
-      <c r="D2" s="5">
-        <v>43697</v>
-      </c>
-      <c r="E2">
-        <v>109702</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>868</v>
-      </c>
-      <c r="C4" s="5">
-        <v>43361</v>
-      </c>
-      <c r="D4" s="5">
-        <v>42936</v>
-      </c>
-      <c r="E4" s="6">
-        <v>101011</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>869</v>
-      </c>
-      <c r="C7" s="5">
-        <v>42806</v>
-      </c>
-      <c r="D7" s="5">
-        <v>43363</v>
-      </c>
-      <c r="E7" s="6">
-        <v>109700</v>
-      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11149,7 +11077,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -11172,7 +11100,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -11188,7 +11116,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -11196,7 +11124,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -11854,7 +11782,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11944,66 +11872,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>871</v>
-      </c>
-      <c r="B2" t="s">
-        <v>872</v>
-      </c>
-      <c r="C2" t="s">
-        <v>873</v>
-      </c>
-      <c r="D2" s="5">
-        <v>43341</v>
-      </c>
-      <c r="E2" t="s">
-        <v>874</v>
-      </c>
-      <c r="F2" t="s">
-        <v>875</v>
-      </c>
-      <c r="G2" s="5">
-        <v>43735</v>
-      </c>
-      <c r="H2" t="s">
-        <v>874</v>
-      </c>
-      <c r="I2" t="s">
-        <v>876</v>
-      </c>
-      <c r="J2" t="s">
-        <v>877</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>878</v>
-      </c>
-      <c r="R2" s="5">
-        <v>43737</v>
-      </c>
-      <c r="S2" t="s">
-        <v>879</v>
-      </c>
-      <c r="T2" s="5">
-        <v>43340</v>
-      </c>
+      <c r="D2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="T2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12017,7 +11889,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -12207,7 +12079,7 @@
         <v>75</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>11</v>
